--- a/data/trans_dic/P25A_8_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_8_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc), asma alérgica excluida</t>
+          <t>Población con limitación por alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc), asma alérgica excluida (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>5,25%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,66%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>26,24%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6,57%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>3,91%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,99</t>
+          <t>0,66; 5,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,44</t>
+          <t>0,0; 4,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,68</t>
+          <t>0,0; 6,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,99</t>
+          <t>0,0; 5,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 10,73</t>
+          <t>2,73; 12,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 9,32</t>
+          <t>0,89; 9,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 8,72</t>
+          <t>2,4; 10,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,23; 51,85</t>
+          <t>2,4; 9,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,28</t>
+          <t>2,44; 8,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 5,85</t>
+          <t>1,62; 9,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,67</t>
+          <t>3,78; 13,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 30,14</t>
+          <t>2,12; 8,73</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 6,43</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 5,58</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 6,36</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,26; 6,1</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 10,28</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 7,43</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>9,63%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,89%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3,54%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>9,84%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>9,2%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,89</t>
+          <t>1,33; 7,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 6,96</t>
+          <t>0,92; 6,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 10,26</t>
+          <t>3,04; 10,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,43</t>
+          <t>0,0; 5,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 12,71</t>
+          <t>4,4; 15,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,82</t>
+          <t>4,92; 15,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 10,42</t>
+          <t>4,3; 12,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,06; 34,28</t>
+          <t>1,66; 6,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,6</t>
+          <t>3,39; 9,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,5</t>
+          <t>2,79; 9,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,52</t>
+          <t>7,03; 16,89</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,89; 25,77</t>
+          <t>5,81; 14,57</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 8,64</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 5,46</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 8,28</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,8; 6,15</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6,48; 13,95</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 13,06</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>4,26%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>4,78%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,04%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>18,51%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>4,7%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>21,25%</t>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>7,24%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,43</t>
+          <t>1,69; 6,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,47</t>
+          <t>1,3; 5,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,88</t>
+          <t>1,67; 5,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,47; 38,19</t>
+          <t>2,51; 8,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,43</t>
+          <t>3,3; 11,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,45</t>
+          <t>2,15; 8,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 9,05</t>
+          <t>1,4; 5,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,27; 30,8</t>
+          <t>2,87; 7,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,91</t>
+          <t>3,79; 8,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,56</t>
+          <t>2,17; 7,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,67</t>
+          <t>6,54; 14,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,59; 30,43</t>
+          <t>7,13; 14,52</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 5,32</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 5,71</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,31; 6,67</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 7,03</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 11,3</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5,3; 9,81</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,37%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>9,66%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,91%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,91%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>4,61%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 7,07</t>
+          <t>1,09; 8,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,47</t>
+          <t>1,83; 5,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,11</t>
+          <t>1,95; 6,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 30,53</t>
+          <t>0,99; 5,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,49</t>
+          <t>4,85; 12,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 6,4</t>
+          <t>2,77; 8,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 8,54</t>
+          <t>2,83; 7,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,84; 44,41</t>
+          <t>2,58; 6,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,14</t>
+          <t>3,55; 8,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,52</t>
+          <t>3,74; 10,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,42</t>
+          <t>5,49; 13,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,22; 33,17</t>
+          <t>6,62; 13,81</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 6,21</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 5,58</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 6,32</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 6,88</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 11,3</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>5,35; 9,83</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>8,33%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,7%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>5,08%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,9</t>
+          <t>0,0; 3,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,72</t>
+          <t>0,72; 4,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 9,91</t>
+          <t>1,15; 8,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,79; 42,91</t>
+          <t>1,19; 7,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,01; 7,32</t>
+          <t>1,17; 6,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,87</t>
+          <t>0,43; 3,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 7,35</t>
+          <t>2,43; 8,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,87; 47,0</t>
+          <t>0,66; 3,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,56</t>
+          <t>2,43; 7,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,5</t>
+          <t>5,64; 13,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,83</t>
+          <t>5,51; 13,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,71; 41,27</t>
+          <t>4,76; 13,65</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 4,25</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 3,25</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 6,94</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>4,38; 9,28</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>4,27; 9,43</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 8,09</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>9,6%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2,71%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>3,97%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,0; 3,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,31</t>
+          <t>0,48; 5,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 5,51</t>
+          <t>0,82; 7,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,98; 57,38</t>
+          <t>0,57; 8,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,48</t>
+          <t>0,65; 7,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,19</t>
+          <t>2,46; 11,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,69; 8,95</t>
+          <t>0,41; 4,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,93; 50,57</t>
+          <t>1,59; 5,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,19</t>
+          <t>2,17; 14,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,44</t>
+          <t>1,09; 9,09</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,61; 6,56</t>
+          <t>2,2; 9,55</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,39; 45,14</t>
+          <t>6,03; 15,15</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 2,66</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 4,61</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 8,9</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 6,42</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>2,17; 6,86</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>4,81; 11,68</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>6,93%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,61</t>
+          <t>1,61; 3,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 3,43</t>
+          <t>1,81; 3,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,67</t>
+          <t>2,51; 4,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,21; 23,75</t>
+          <t>2,05; 4,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,33</t>
+          <t>4,53; 7,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 4,89</t>
+          <t>3,61; 6,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,5</t>
+          <t>3,23; 5,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,7; 32,53</t>
+          <t>3,09; 5,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,08</t>
+          <t>4,24; 7,08</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,9</t>
+          <t>4,46; 7,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,58; 5,19</t>
+          <t>7,02; 10,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,09; 26,81</t>
+          <t>7,39; 10,75</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 4,13</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 3,84</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>3,63; 5,45</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 5,32</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 8,43</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>5,81; 8,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc), asma alérgica excluida (tasa de respuesta: 99,86%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10333</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6510</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8927</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2525</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14802</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>26841</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>27056</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>25182</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2905</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22310</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>37175</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>33566</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>34109</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2399</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5430</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>37113</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3323; 27763</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21923</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 34987</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2430</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1203; 5444</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4190; 44399</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11193; 48147</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12373; 46980</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12528; 45441</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>607; 3627</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1457; 5017</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10106; 41684</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>19376; 62266</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18334; 57933</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>18035; 64878</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1002; 4850</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>3166; 8490</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>20977; 70455</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21135</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16163</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>35398</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>50938</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38958</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18318</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30085</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2568</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5037</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>48378</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>60093</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>34481</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>65483</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>9347</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>99316</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7627; 41671</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5226; 38759</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>18080; 61769</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2933</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2156; 7489</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>28416; 88808</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22210; 66288</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8414; 35212</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17513; 50499</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1299; 4627</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3236; 7768</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>29212; 73176</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>36344; 94174</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>18966; 58578</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>41445; 92009</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1731; 5927</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>6152; 13255</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>67126; 140936</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24183</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20098</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22249</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2985</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>28940</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21991</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>33973</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>42789</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2343</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5539</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>72087</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>46175</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>54070</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>65038</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>5329</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>9456</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>101027</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11631; 45888</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8873; 37407</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11378; 37789</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1508; 5391</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2004; 6974</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14586; 54718</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9946; 39977</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20387; 53213</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27058; 63129</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1160; 3934</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3546; 7982</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>51142; 104160</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>29565; 74247</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>36598; 79466</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>46162; 92901</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>3317; 7976</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>6709; 12996</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>74071; 137016</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19661</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>23007</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22691</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1690</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4424</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31939</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>32306</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>28483</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>37116</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3308</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4836</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>63895</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>51967</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>51491</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>59806</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>4998</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>9260</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>95834</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7027; 53173</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11779; 38421</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12425; 38603</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>578; 3410</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2763; 7068</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18204; 53861</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>19334; 50891</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17377; 45158</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>23438; 53997</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1955; 5286</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2924; 7119</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>43808; 91343</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>33174; 82440</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>35376; 73475</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>41130; 81943</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>3256; 7601</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>6728; 12457</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>70519; 129562</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10347</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>16368</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1552</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1547</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8233</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22307</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8836</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23306</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>43036</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>26908</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>19183</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>39674</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6001</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>5808</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>51269</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 16404</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3597; 23055</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5614; 43839</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>532; 3150</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>527; 2905</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2140; 19565</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12260; 41918</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3339; 19523</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>12505; 40117</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2706; 6549</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2579; 6425</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>24629; 70546</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>13311; 42374</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>10198; 32715</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>22642; 69660</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>4051; 8588</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>3921; 8653</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>33153; 81685</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10503</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>14004</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>34324</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>10406</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22504</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>34376</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2428</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>3240</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>67792</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>13873</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>33006</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>48380</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>3659</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>102116</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17661</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2531; 26473</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4320; 38629</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>267; 3790</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>300; 3391</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>13946; 65366</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2932; 30038</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10982; 41082</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>14998; 98907</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>692; 5789</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1399; 6081</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>42559; 106965</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>3310; 33425</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>19314; 56268</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>22514; 108600</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1523; 7097</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>2372; 7512</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>61184; 148671</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>83382</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>86628</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>119636</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>9092</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>17858</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>169176</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>152809</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>139170</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>192855</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>16705</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>25819</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>317499</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>236191</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>225798</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>312491</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>25797</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>43678</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>486675</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>55245; 126836</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>62275; 116787</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>86100; 163901</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>6173; 13220</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>13666; 22816</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>124327; 221633</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>116121; 194878</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>111423; 180089</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>153048; 255468</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>13434; 21980</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>21253; 30986</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>264713; 384997</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>189863; 290549</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>181149; 270445</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>256064; 383653</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>21004; 32081</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>37575; 50932</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>408128; 562859</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
